--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="116">
   <si>
     <t>データベース名</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>カラム名</t>
-  </si>
-  <si>
-    <t>Users</t>
   </si>
   <si>
     <t>カラム説明</t>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>備考</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
   <si>
     <t>顧客テーブル</t>
@@ -133,10 +133,10 @@
     <t>Payments</t>
   </si>
   <si>
-    <t>Addresses</t>
+    <t>Carts</t>
   </si>
   <si>
-    <t>Carts</t>
+    <t>Addresses</t>
   </si>
   <si>
     <t>CartItems</t>
@@ -169,37 +169,49 @@
     <t>ユーザーID</t>
   </si>
   <si>
+    <t>OrderItems</t>
+  </si>
+  <si>
     <t>payment_id</t>
+  </si>
+  <si>
+    <t>orderitem_id</t>
+  </si>
+  <si>
+    <t>受注履歴アイテムID</t>
   </si>
   <si>
     <t>決済ID</t>
   </si>
   <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>枚数</t>
+  </si>
+  <si>
     <t>order_status_id</t>
   </si>
   <si>
-    <t>受注状況ID</t>
+    <t>price</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>住所(決済時)</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>合計金額 (送料込)</t>
+    <t>金額</t>
   </si>
   <si>
     <t>create_datetime</t>
   </si>
   <si>
-    <t>登録日 (注文日時)</t>
+    <t>登録日</t>
+  </si>
+  <si>
+    <t>受注状況ID</t>
   </si>
   <si>
     <t>datetime</t>
@@ -214,37 +226,88 @@
     <t>更新日</t>
   </si>
   <si>
-    <t>OrderItems</t>
+    <t>address</t>
   </si>
   <si>
-    <t>orderitem_id</t>
+    <t>住所(決済時)</t>
   </si>
   <si>
-    <t>受注履歴アイテムID</t>
+    <t>text</t>
   </si>
   <si>
-    <t>item_id</t>
+    <t>post_number</t>
   </si>
   <si>
-    <t>商品ID</t>
+    <t>郵便番号</t>
   </si>
   <si>
-    <t>quantity</t>
+    <t>family_name</t>
   </si>
   <si>
-    <t>枚数</t>
+    <t>受注者姓</t>
   </si>
   <si>
-    <t>price</t>
+    <t>string</t>
   </si>
   <si>
-    <t>金額</t>
+    <t>first_name</t>
   </si>
   <si>
-    <t>登録日</t>
+    <t>受注者名</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>電話番号</t>
   </si>
   <si>
     <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>合計金額 (商品)</t>
+  </si>
+  <si>
+    <t>shipping_fee</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>総合計</t>
+  </si>
+  <si>
+    <t>delivery_status</t>
+  </si>
+  <si>
+    <t>配送ステータス</t>
+  </si>
+  <si>
+    <t>受付</t>
+  </si>
+  <si>
+    <t>登録日 (注文日時)</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>アーティストID</t>
+  </si>
+  <si>
+    <t>artist_name</t>
+  </si>
+  <si>
+    <t>アーティスト名</t>
   </si>
   <si>
     <t>Labels</t>
@@ -260,24 +323,6 @@
   </si>
   <si>
     <t>レーベル名</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Artists</t>
-  </si>
-  <si>
-    <t>artist_id</t>
-  </si>
-  <si>
-    <t>アーティストID</t>
-  </si>
-  <si>
-    <t>artist_name</t>
-  </si>
-  <si>
-    <t>アーティスト名</t>
   </si>
   <si>
     <t>Genres</t>
@@ -438,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -451,6 +496,9 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -484,7 +532,7 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1770,7 +1818,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -1787,7 +1835,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -1798,67 +1846,67 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
@@ -1867,17 +1915,17 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>66</v>
+      <c r="B11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
@@ -1886,38 +1934,38 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>1.0</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>70</v>
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="1"/>
@@ -1926,44 +1974,44 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>71</v>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="8" t="s">
-        <v>59</v>
+      <c r="I14" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>61</v>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="8" t="s">
-        <v>59</v>
+      <c r="I15" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -3027,7 +3075,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -3044,7 +3092,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -3055,106 +3103,116 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>71</v>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8" t="s">
-        <v>59</v>
+      <c r="I10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>61</v>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
+      <c r="I11" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -4238,7 +4296,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -4255,7 +4313,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -4266,115 +4324,115 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>83</v>
+      <c r="B10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
+      <c r="I11" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
-        <v>59</v>
+      <c r="I12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -5470,7 +5528,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -5487,7 +5545,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -5498,115 +5556,115 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>77</v>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
+      <c r="I11" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
-        <v>59</v>
+      <c r="I12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -6702,7 +6760,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -6719,7 +6777,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -6730,115 +6788,115 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>88</v>
+      <c r="B10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
+      <c r="I11" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
-        <v>59</v>
+      <c r="I12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -7934,7 +7992,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -7951,7 +8009,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -7962,132 +8020,132 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>66</v>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>93</v>
+      <c r="B11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
-        <v>59</v>
+      <c r="I12" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>61</v>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="8" t="s">
-        <v>59</v>
+      <c r="I13" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -9171,7 +9229,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
@@ -9188,7 +9246,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -9199,153 +9257,153 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>91</v>
+      <c r="B10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>98</v>
+      <c r="B11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>100</v>
+      <c r="B12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>71</v>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="8" t="s">
-        <v>59</v>
+      <c r="I13" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>61</v>
+      <c r="B14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="8" t="s">
-        <v>59</v>
+      <c r="I14" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -10432,7 +10490,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -10443,28 +10501,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -11618,28 +11676,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -12793,28 +12851,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -13966,7 +14024,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -13977,28 +14035,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -15150,7 +15208,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -15161,28 +15219,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -16336,28 +16394,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -17511,28 +17569,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -18661,26 +18719,29 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="I1" s="8"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="1" t="s">
@@ -18701,86 +18762,88 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1"/>
@@ -18789,35 +18852,37 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="B12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>52</v>
+      <c r="B13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="1"/>
@@ -18826,17 +18891,17 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>55</v>
+      <c r="B14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="1"/>
@@ -18845,83 +18910,163 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>57</v>
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
+      <c r="B16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="B18" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
+      <c r="B19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>

--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -26,30 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="84">
+  <si>
+    <t>データベース名</t>
+  </si>
   <si>
     <t>テーブル一覧</t>
   </si>
   <si>
-    <t>データベース名</t>
+    <t>例</t>
   </si>
   <si>
     <t>テーブルNo</t>
   </si>
   <si>
-    <t>例</t>
-  </si>
-  <si>
     <t>テーブル名</t>
   </si>
   <si>
-    <t>顧客テーブル</t>
-  </si>
-  <si>
-    <t>平川さん</t>
-  </si>
-  <si>
-    <t>Administors</t>
+    <t>Users</t>
   </si>
   <si>
     <t>カラム名</t>
@@ -79,7 +73,13 @@
     <t>備考</t>
   </si>
   <si>
-    <t>Users</t>
+    <t>Administors</t>
+  </si>
+  <si>
+    <t>顧客テーブル</t>
+  </si>
+  <si>
+    <t>平川さん</t>
   </si>
   <si>
     <t>管理者テーブル</t>
@@ -130,7 +130,7 @@
     <t>曲テーブル</t>
   </si>
   <si>
-    <t>Payments</t>
+    <t>ECL</t>
   </si>
   <si>
     <t>Addresses</t>
@@ -139,31 +139,142 @@
     <t>Carts</t>
   </si>
   <si>
-    <t>CartItems</t>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>カートID</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新日時</t>
   </si>
   <si>
     <t>Items</t>
   </si>
   <si>
+    <t>Item_id</t>
+  </si>
+  <si>
+    <t>CartItems</t>
+  </si>
+  <si>
+    <t>cart_item_id</t>
+  </si>
+  <si>
+    <t>カートアイテムID</t>
+  </si>
+  <si>
     <t>Orders</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>枚数</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>アーティストID</t>
+  </si>
+  <si>
+    <t>label_id</t>
+  </si>
+  <si>
+    <t>レーベルID</t>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>値段</t>
+  </si>
+  <si>
+    <t>jacket_image_id</t>
+  </si>
+  <si>
+    <t>ジャケット画像 URL</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>stock_quantity</t>
+  </si>
+  <si>
+    <t>在庫数</t>
+  </si>
+  <si>
+    <t>sales_status</t>
+  </si>
+  <si>
+    <t>販売ステータス</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>OrderItems</t>
   </si>
   <si>
     <t>OrderStatus</t>
   </si>
   <si>
-    <t>OrderItems</t>
-  </si>
-  <si>
-    <t>Artists</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
-    <t>Genres</t>
+    <t>Discs</t>
   </si>
   <si>
-    <t>Discs</t>
+    <t>Genres</t>
   </si>
   <si>
     <t>Songs</t>
@@ -173,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -184,6 +295,9 @@
       <b/>
       <color rgb="FFFF0000"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +307,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -250,35 +364,66 @@
         <color rgb="FF000000"/>
       </top>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -366,187 +511,187 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>2.0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3.0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4.0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5.0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6.0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7.0</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>8.0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9.0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>10.0</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>11.0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>12.0</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>13.0</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>14.0</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>15.0</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1527,15 +1672,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1560,184 +1696,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2744,184 +2880,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3928,184 +4064,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5112,184 +5248,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6296,184 +6432,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7480,184 +7616,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8664,184 +8800,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9848,174 +9984,174 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -11023,174 +11159,174 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -12198,184 +12334,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13382,184 +13518,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -14566,174 +14702,218 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -15741,174 +15921,234 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -16916,185 +17156,285 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -18101,185 +18441,185 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -26,18 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="137">
+  <si>
+    <t>テーブル一覧</t>
+  </si>
   <si>
     <t>データベース名</t>
   </si>
   <si>
-    <t>テーブル一覧</t>
+    <t>テーブルNo</t>
   </si>
   <si>
     <t>例</t>
-  </si>
-  <si>
-    <t>テーブルNo</t>
   </si>
   <si>
     <t>テーブル名</t>
@@ -58,6 +58,9 @@
     <t>データ型</t>
   </si>
   <si>
+    <t>Administors</t>
+  </si>
+  <si>
     <t>NOT NULL</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>Administors</t>
   </si>
   <si>
     <t>顧客テーブル</t>
@@ -139,9 +139,6 @@
     <t>Carts</t>
   </si>
   <si>
-    <t>Payments</t>
-  </si>
-  <si>
     <t>cart_id</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>Payments</t>
+  </si>
+  <si>
     <t>now</t>
   </si>
   <si>
@@ -176,12 +176,6 @@
   </si>
   <si>
     <t>更新日時</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Item_id</t>
   </si>
   <si>
     <t>CartItems</t>
@@ -193,10 +187,13 @@
     <t>カートアイテムID</t>
   </si>
   <si>
-    <t>Orders</t>
+    <t>Item_id</t>
   </si>
   <si>
     <t>商品ID</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
   <si>
     <t>number</t>
@@ -253,38 +250,200 @@
     <t>在庫数</t>
   </si>
   <si>
+    <t>Orders</t>
+  </si>
+  <si>
     <t>sales_status</t>
   </si>
   <si>
     <t>販売ステータス</t>
   </si>
   <si>
-    <t>Artists</t>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>受注履歴ID</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>決済ID</t>
+  </si>
+  <si>
+    <t>order_status_id</t>
+  </si>
+  <si>
+    <t>受注状況ID</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>住所(決済時)</t>
+  </si>
+  <si>
+    <t>post_number</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>受注者姓</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>受注者名</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>合計金額 (商品)</t>
+  </si>
+  <si>
+    <t>shipping_fee</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>総合計</t>
+  </si>
+  <si>
+    <t>create_datetime</t>
+  </si>
+  <si>
+    <t>登録日 (注文日時)</t>
+  </si>
+  <si>
+    <t>update_datetime</t>
+  </si>
+  <si>
+    <t>更新日</t>
   </si>
   <si>
     <t>OrderItems</t>
   </si>
   <si>
+    <t>orderitem_id</t>
+  </si>
+  <si>
+    <t>受注履歴アイテムID</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
     <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>delivery_status</t>
+  </si>
+  <si>
+    <t>配送ステータス</t>
+  </si>
+  <si>
+    <t>受付</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>artist_name</t>
+  </si>
+  <si>
+    <t>アーティスト名</t>
   </si>
   <si>
     <t>Labels</t>
   </si>
   <si>
-    <t>Discs</t>
+    <t>lebel_id</t>
+  </si>
+  <si>
+    <t>lebel_name</t>
+  </si>
+  <si>
+    <t>レーベル名</t>
   </si>
   <si>
     <t>Genres</t>
   </si>
   <si>
+    <t>genre_name</t>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+  </si>
+  <si>
+    <t>Discs</t>
+  </si>
+  <si>
+    <t>disc_id</t>
+  </si>
+  <si>
+    <t>ディスクID</t>
+  </si>
+  <si>
+    <t>disc_name</t>
+  </si>
+  <si>
+    <t>ディスク名</t>
+  </si>
+  <si>
     <t>Songs</t>
+  </si>
+  <si>
+    <t>song_id</t>
+  </si>
+  <si>
+    <t>曲ID</t>
+  </si>
+  <si>
+    <t>song_name</t>
+  </si>
+  <si>
+    <t>曲名</t>
+  </si>
+  <si>
+    <t>song_order</t>
+  </si>
+  <si>
+    <t>曲順</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -298,6 +457,11 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +471,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -349,6 +513,11 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -358,11 +527,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <right style="thin">
@@ -376,6 +540,16 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -387,41 +561,56 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -511,16 +700,16 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -531,167 +720,167 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>2.0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>3.0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>4.0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>5.0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>6.0</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>7.0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>8.0</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>9.0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>10.0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>11.0</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>12.0</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>13.0</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>14.0</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>15.0</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1694,189 +1883,396 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -2878,186 +3274,304 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4062,186 +4576,322 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5246,191 +5896,354 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -6430,186 +7243,304 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7614,186 +8545,328 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8798,186 +9871,321 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9984,174 +11192,174 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -11159,174 +12367,174 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -12334,184 +13542,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13518,184 +14726,184 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -14702,218 +15910,218 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -15921,234 +17129,234 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="8" t="s">
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="8" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -17156,285 +18364,285 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>51</v>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="F16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="E17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="8" t="s">
+      <c r="F18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="8" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -18439,200 +19647,658 @@
     <col customWidth="1" min="10" max="10" width="73.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>

--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -26,27 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="138">
+  <si>
+    <t>データベース名</t>
+  </si>
   <si>
     <t>テーブル一覧</t>
   </si>
   <si>
-    <t>データベース名</t>
+    <t>例</t>
   </si>
   <si>
     <t>テーブルNo</t>
   </si>
   <si>
-    <t>例</t>
-  </si>
-  <si>
     <t>テーブル名</t>
   </si>
   <si>
-    <t>Users</t>
+    <t>Administors</t>
   </si>
   <si>
     <t>カラム名</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
   <si>
     <t>カラム説明</t>
@@ -55,10 +58,10 @@
     <t>PK</t>
   </si>
   <si>
-    <t>データ型</t>
+    <t>FK</t>
   </si>
   <si>
-    <t>Administors</t>
+    <t>データ型</t>
   </si>
   <si>
     <t>NOT NULL</t>
@@ -130,6 +133,9 @@
     <t>曲テーブル</t>
   </si>
   <si>
+    <t>Payments</t>
+  </si>
+  <si>
     <t>ECL</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>Payments</t>
-  </si>
-  <si>
     <t>now</t>
   </si>
   <si>
@@ -178,7 +181,13 @@
     <t>更新日時</t>
   </si>
   <si>
+    <t>Items</t>
+  </si>
+  <si>
     <t>CartItems</t>
+  </si>
+  <si>
+    <t>Item_id</t>
   </si>
   <si>
     <t>cart_item_id</t>
@@ -187,13 +196,7 @@
     <t>カートアイテムID</t>
   </si>
   <si>
-    <t>Item_id</t>
-  </si>
-  <si>
     <t>商品ID</t>
-  </si>
-  <si>
-    <t>Items</t>
   </si>
   <si>
     <t>number</t>
@@ -244,13 +247,13 @@
     <t>text</t>
   </si>
   <si>
+    <t>Orders</t>
+  </si>
+  <si>
     <t>stock_quantity</t>
   </si>
   <si>
     <t>在庫数</t>
-  </si>
-  <si>
-    <t>Orders</t>
   </si>
   <si>
     <t>sales_status</t>
@@ -412,12 +415,6 @@
     <t>ディスクID</t>
   </si>
   <si>
-    <t>disc_name</t>
-  </si>
-  <si>
-    <t>ディスク名</t>
-  </si>
-  <si>
     <t>Songs</t>
   </si>
   <si>
@@ -437,6 +434,12 @@
   </si>
   <si>
     <t>曲順</t>
+  </si>
+  <si>
+    <t>disc_name</t>
+  </si>
+  <si>
+    <t>ディスク名</t>
   </si>
 </sst>
 </file>
@@ -513,11 +516,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -529,17 +527,22 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -561,15 +564,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -577,41 +583,32 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,28 +697,28 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>1.0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -729,158 +726,158 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>5.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6.0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7.0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>8.0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9.0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>10.0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>11.0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>12.0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>13.0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>14.0</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>15.0</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1876,19 +1873,18 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1896,15 +1892,15 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1912,17 +1908,17 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1930,13 +1926,13 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1944,15 +1940,15 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1960,15 +1956,15 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1976,281 +1972,294 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="10"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10"/>
+      <c r="B11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="18">
         <v>1.0</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="10"/>
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="B14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="10"/>
+      <c r="G14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="16"/>
       <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="C15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="10"/>
+      <c r="G15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="16"/>
       <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2258,13 +2267,13 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2272,6 +2281,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -3267,311 +3277,324 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="B10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="C11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4569,329 +4592,342 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="B11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="C12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5889,360 +5925,373 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="B11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="C12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -7236,311 +7285,324 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="B11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="C12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8538,335 +8600,348 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="10"/>
+      <c r="B10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10"/>
+      <c r="B11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="B12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="C13" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9864,328 +9939,341 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="B13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="G13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="C14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="G14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -11183,183 +11271,196 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -12358,183 +12459,196 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -13533,193 +13647,206 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -14717,193 +14844,206 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -15901,227 +16041,240 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -17120,243 +17273,256 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -18355,294 +18521,307 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="C9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="G17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="G18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -19640,19 +19819,18 @@
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="9" width="16.57"/>
-    <col customWidth="1" min="10" max="10" width="73.43"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+    <col customWidth="1" min="6" max="7" width="14.43"/>
+    <col customWidth="1" min="8" max="8" width="17.14"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
+    <col customWidth="1" min="11" max="11" width="73.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -19662,15 +19840,15 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -19680,17 +19858,17 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -19700,13 +19878,13 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -19716,15 +19894,15 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -19734,15 +19912,15 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -19752,415 +19930,428 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="10"/>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="10"/>
+      <c r="G10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="10"/>
+      <c r="C12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="10"/>
+      <c r="C13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="10"/>
+      <c r="C15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="10"/>
+      <c r="C16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="10"/>
+      <c r="C17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="19">
+      <c r="C19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18">
         <v>500.0</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="10"/>
+      <c r="C20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20" t="s">
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="10"/>
+      <c r="G21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="16"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
+      <c r="C22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="10"/>
+      <c r="G22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -20170,13 +20361,13 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -20186,13 +20377,13 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -20202,13 +20393,13 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -20218,13 +20409,13 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -20234,13 +20425,13 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -20250,13 +20441,13 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -20266,13 +20457,13 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -20282,13 +20473,13 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -20298,6 +20489,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -26,15 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="139">
   <si>
     <t>データベース名</t>
   </si>
   <si>
-    <t>テーブル一覧</t>
+    <t>例</t>
   </si>
   <si>
-    <t>例</t>
+    <t>テーブル一覧</t>
   </si>
   <si>
     <t>テーブルNo</t>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>カラム名</t>
-  </si>
-  <si>
-    <t>Users</t>
   </si>
   <si>
     <t>カラム説明</t>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>管理者テーブル</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
   <si>
     <t>決済方法テーブル</t>
@@ -133,16 +133,16 @@
     <t>曲テーブル</t>
   </si>
   <si>
+    <t>ECL</t>
+  </si>
+  <si>
     <t>Payments</t>
   </si>
   <si>
-    <t>ECL</t>
+    <t>Carts</t>
   </si>
   <si>
     <t>Addresses</t>
-  </si>
-  <si>
-    <t>Carts</t>
   </si>
   <si>
     <t>cart_id</t>
@@ -199,12 +199,6 @@
     <t>商品ID</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>枚数</t>
-  </si>
-  <si>
     <t>artist_id</t>
   </si>
   <si>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>レーベルID</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>枚数</t>
   </si>
   <si>
     <t>genre_id</t>
@@ -232,6 +232,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>Orders</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -245,9 +248,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>Orders</t>
   </si>
   <si>
     <t>stock_quantity</t>
@@ -358,13 +358,13 @@
     <t>quantity</t>
   </si>
   <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
     <t>金額</t>
   </si>
   <si>
     <t>登録日</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
   </si>
   <si>
     <t>delivery_status</t>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>受付</t>
+  </si>
+  <si>
+    <t>0= "受付", 1= "商品準備中", 2="出荷済"</t>
   </si>
   <si>
     <t>Artists</t>
@@ -415,6 +418,12 @@
     <t>ディスクID</t>
   </si>
   <si>
+    <t>disc_name</t>
+  </si>
+  <si>
+    <t>ディスク名</t>
+  </si>
+  <si>
     <t>Songs</t>
   </si>
   <si>
@@ -434,12 +443,6 @@
   </si>
   <si>
     <t>曲順</t>
-  </si>
-  <si>
-    <t>disc_name</t>
-  </si>
-  <si>
-    <t>ディスク名</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -574,9 +577,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -586,10 +586,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -607,6 +607,13 @@
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -698,7 +705,7 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -711,25 +718,25 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1.0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -740,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -751,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1881,101 +1888,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1985,303 +1992,307 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="18">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="20">
         <v>1.0</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -3285,89 +3296,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3379,205 +3390,207 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -3586,15 +3599,15 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4600,95 +4613,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -4698,236 +4711,236 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="10"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="10"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="10"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5933,89 +5946,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6027,271 +6040,271 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -7293,89 +7306,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -7387,222 +7400,222 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8608,95 +8621,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -8706,242 +8719,244 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="10"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="10"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9947,89 +9962,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -10041,239 +10056,241 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="C13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -11287,7 +11304,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -11304,7 +11321,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
@@ -11315,31 +11332,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -11451,16 +11468,16 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -12475,7 +12492,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -12503,31 +12520,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -12639,16 +12656,16 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -13663,7 +13680,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -13680,7 +13697,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
@@ -13691,31 +13708,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -13829,7 +13846,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -13838,15 +13855,15 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -14860,7 +14877,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -14877,7 +14894,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
@@ -14888,31 +14905,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -15026,7 +15043,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -15035,15 +15052,15 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -16057,10 +16074,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -16076,7 +16093,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
@@ -16087,31 +16104,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -16128,13 +16145,13 @@
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="1"/>
@@ -16152,11 +16169,11 @@
       <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
@@ -16172,7 +16189,7 @@
       <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="1"/>
@@ -16194,7 +16211,7 @@
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="1"/>
@@ -16265,16 +16282,16 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -17289,10 +17306,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -17319,31 +17336,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -17393,10 +17410,10 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="1"/>
@@ -17414,10 +17431,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -17444,7 +17461,7 @@
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="1"/>
@@ -17466,7 +17483,7 @@
       <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="1"/>
@@ -17513,16 +17530,16 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -18537,10 +18554,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -18567,132 +18584,132 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="16"/>
+      <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="1"/>
@@ -18701,18 +18718,18 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="C14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="1"/>
@@ -18721,18 +18738,18 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="1"/>
@@ -18741,18 +18758,18 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="1"/>
@@ -18761,18 +18778,18 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="4"/>
@@ -18788,11 +18805,11 @@
         <v>46</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="1"/>
@@ -18813,7 +18830,7 @@
       <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="1"/>
@@ -19827,113 +19844,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -19943,553 +19960,563 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="20">
+        <v>500.0</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="F19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18">
-        <v>500.0</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="F22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -46,10 +46,13 @@
     <t>平川さん</t>
   </si>
   <si>
+    <t>例</t>
+  </si>
+  <si>
     <t>管理者テーブル</t>
   </si>
   <si>
-    <t>例</t>
+    <t>ECL</t>
   </si>
   <si>
     <t>決済方法テーブル</t>
@@ -70,9 +73,6 @@
     <t>商品情報テーブル</t>
   </si>
   <si>
-    <t>ECL</t>
-  </si>
-  <si>
     <t>受注履歴テーブル</t>
   </si>
   <si>
@@ -85,25 +85,19 @@
     <t>受注状況テーブル</t>
   </si>
   <si>
+    <t>Administors</t>
+  </si>
+  <si>
     <t>アーティストテーブル</t>
   </si>
   <si>
     <t>レーベルテーブル</t>
   </si>
   <si>
-    <t>ジャンルテーブル</t>
+    <t>Users</t>
   </si>
   <si>
-    <t>ディスクテーブル</t>
-  </si>
-  <si>
-    <t>曲テーブル</t>
-  </si>
-  <si>
-    <t>Administors</t>
-  </si>
-  <si>
-    <t>Users</t>
+    <t>ジャンルテーブル</t>
   </si>
   <si>
     <t>カラム名</t>
@@ -136,13 +130,16 @@
     <t>備考</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>admin_id</t>
   </si>
   <si>
-    <t>管理者ID</t>
+    <t>ディスクテーブル</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>曲テーブル</t>
   </si>
   <si>
     <t>顧客ID</t>
@@ -151,7 +148,13 @@
     <t>◯</t>
   </si>
   <si>
+    <t>管理者ID</t>
+  </si>
+  <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>family_name</t>
   </si>
   <si>
     <t>address_id</t>
@@ -160,41 +163,38 @@
     <t>住所ID</t>
   </si>
   <si>
+    <t>管理者姓</t>
+  </si>
+  <si>
     <t xml:space="preserve">◯
 </t>
   </si>
   <si>
-    <t>family_name</t>
-  </si>
-  <si>
-    <t>管理者姓</t>
+    <t>string</t>
   </si>
   <si>
     <t>住所テーブルからIDに紐づいた住所情報（レコード）を引き出す</t>
   </si>
   <si>
-    <t>string</t>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>管理者名</t>
   </si>
   <si>
     <t>顧客性</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
     <t>顧客名</t>
-  </si>
-  <si>
-    <t>管理者名</t>
   </si>
   <si>
     <t>katakana_sei</t>
   </si>
   <si>
-    <t>カナ性</t>
+    <t>カナ姓</t>
   </si>
   <si>
-    <t>カナ姓</t>
+    <t>カナ性</t>
   </si>
   <si>
     <t>katakana_mei</t>
@@ -275,31 +275,19 @@
     <t>決済方法決定日時</t>
   </si>
   <si>
-    <t>決済方法変更日時</t>
-  </si>
-  <si>
-    <t>Carts</t>
-  </si>
-  <si>
     <t>Addresses</t>
   </si>
   <si>
-    <t>cart_id</t>
-  </si>
-  <si>
-    <t>カートID</t>
+    <t>決済方法変更日時</t>
   </si>
   <si>
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>登録日時</t>
+    <t>宛先人姓</t>
   </si>
   <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>宛先人姓</t>
+    <t>Carts</t>
   </si>
   <si>
     <t>宛先任名</t>
@@ -308,7 +296,13 @@
     <t>post_number</t>
   </si>
   <si>
+    <t>cart_id</t>
+  </si>
+  <si>
     <t>郵便番号</t>
+  </si>
+  <si>
+    <t>カートID</t>
   </si>
   <si>
     <t>address</t>
@@ -321,6 +315,12 @@
   </si>
   <si>
     <t>phone_nember</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>更新日時</t>
   </si>
   <si>
     <t>住所内容変更日時</t>
@@ -401,6 +401,9 @@
     <t>Orders</t>
   </si>
   <si>
+    <t>OrderItems</t>
+  </si>
+  <si>
     <t>order_id</t>
   </si>
   <si>
@@ -408,6 +411,12 @@
   </si>
   <si>
     <t>〇</t>
+  </si>
+  <si>
+    <t>orderitem_id</t>
+  </si>
+  <si>
+    <t>受注履歴アイテムID</t>
   </si>
   <si>
     <t>決済ID</t>
@@ -419,13 +428,34 @@
     <t>受注状況ID</t>
   </si>
   <si>
+    <t>item_id</t>
+  </si>
+  <si>
     <t>住所(決済時)</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
   <si>
     <t>受注者姓</t>
   </si>
   <si>
+    <t>金額</t>
+  </si>
+  <si>
     <t>受注者名</t>
+  </si>
+  <si>
+    <t>create_datetime</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
+    <t>update_datetime</t>
+  </si>
+  <si>
+    <t>更新日</t>
   </si>
   <si>
     <t>total_price</t>
@@ -440,43 +470,16 @@
     <t>送料</t>
   </si>
   <si>
-    <t>OrderItems</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
     <t>総合計</t>
   </si>
   <si>
-    <t>create_datetime</t>
-  </si>
-  <si>
     <t>登録日 (注文日時)</t>
   </si>
   <si>
-    <t>update_datetime</t>
-  </si>
-  <si>
-    <t>更新日</t>
-  </si>
-  <si>
     <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>orderitem_id</t>
-  </si>
-  <si>
-    <t>受注履歴アイテムID</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>登録日</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
   <si>
     <t>delivery_status</t>
@@ -491,13 +494,7 @@
     <t>0= "受付", 1= "商品準備中", 2="出荷済"</t>
   </si>
   <si>
-    <t>金額</t>
-  </si>
-  <si>
     <t>Artists</t>
-  </si>
-  <si>
-    <t>Labels</t>
   </si>
   <si>
     <t>artist_name</t>
@@ -506,22 +503,25 @@
     <t>アーティスト名</t>
   </si>
   <si>
-    <t>lebel_id</t>
+    <t>Genres</t>
   </si>
   <si>
-    <t>Genres</t>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>genre_name</t>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+  </si>
+  <si>
+    <t>lebel_id</t>
   </si>
   <si>
     <t>lebel_name</t>
   </si>
   <si>
     <t>レーベル名</t>
-  </si>
-  <si>
-    <t>genre_name</t>
-  </si>
-  <si>
-    <t>ジャンル名</t>
   </si>
   <si>
     <t>Discs</t>
@@ -638,9 +638,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -649,6 +646,9 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -706,33 +706,33 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -748,13 +748,13 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -869,76 +869,76 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>2.0</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>3.0</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>4.0</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>5.0</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>6.0</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>7.0</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
+      <c r="C12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>8.0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -946,10 +946,10 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>9.0</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -957,10 +957,10 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>10.0</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -968,63 +968,63 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>11.0</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>19</v>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="10">
+      <c r="B17" s="11">
         <v>12.0</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>20</v>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>13.0</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>21</v>
+      <c r="C18" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>14.0</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>22</v>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="10">
+      <c r="B20" s="11">
         <v>15.0</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>23</v>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -2028,101 +2028,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2132,307 +2132,307 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="25">
         <v>1.0</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="G14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
+      <c r="G15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -3436,89 +3436,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3531,206 +3531,206 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>153</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -4753,95 +4753,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4851,225 +4851,225 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="20"/>
@@ -6086,89 +6086,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -6181,270 +6181,270 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -7446,89 +7446,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7541,210 +7541,210 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="20"/>
@@ -8761,95 +8761,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8859,233 +8859,233 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="20"/>
@@ -10102,89 +10102,89 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -10197,240 +10197,240 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="G14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -11456,10 +11456,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -11476,13 +11476,13 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11501,7 +11501,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -11519,10 +11519,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11540,13 +11540,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -11580,35 +11580,35 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -11620,29 +11620,29 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -11653,28 +11653,28 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
         <v>44</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -11686,23 +11686,23 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -11713,23 +11713,23 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -11743,20 +11743,20 @@
         <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -11772,18 +11772,18 @@
       <c r="C14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -11799,18 +11799,18 @@
       <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -11826,18 +11826,18 @@
       <c r="C16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -11853,18 +11853,18 @@
       <c r="C17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -11880,18 +11880,18 @@
       <c r="C18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -11913,7 +11913,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -11942,7 +11942,7 @@
         <v>67</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -13035,10 +13035,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -13056,13 +13056,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -13082,7 +13082,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -13101,10 +13101,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -13123,13 +13123,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -13165,35 +13165,35 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -13206,29 +13206,29 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -13240,23 +13240,23 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -13268,23 +13268,23 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -13299,20 +13299,20 @@
         <v>53</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -13329,18 +13329,18 @@
       <c r="C13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -13357,18 +13357,18 @@
       <c r="C14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -13385,18 +13385,18 @@
       <c r="C15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -13413,18 +13413,18 @@
       <c r="C16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -13441,20 +13441,20 @@
       <c r="C17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -13471,20 +13471,20 @@
       <c r="C18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -14783,10 +14783,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -14802,13 +14802,13 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -14826,7 +14826,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -14843,10 +14843,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -14863,13 +14863,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -14901,35 +14901,35 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -14946,23 +14946,23 @@
         <v>76</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -14977,17 +14977,17 @@
       <c r="C10" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="14" t="s">
         <v>80</v>
       </c>
@@ -15005,18 +15005,18 @@
       <c r="C11" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -15029,20 +15029,20 @@
         <v>70</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -15051,16 +15051,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -15069,16 +15069,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -15087,16 +15087,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -15105,16 +15105,16 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -15123,16 +15123,16 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -15141,16 +15141,16 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -15159,16 +15159,16 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -16302,10 +16302,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16323,13 +16323,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -16349,7 +16349,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -16368,10 +16368,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -16390,13 +16390,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -16432,35 +16432,35 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -16473,29 +16473,29 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -16507,25 +16507,25 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -16537,23 +16537,23 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -16565,23 +16565,23 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -16593,23 +16593,23 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -16621,23 +16621,23 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="G14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -16649,23 +16649,23 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -16682,20 +16682,20 @@
       <c r="C16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -16712,20 +16712,20 @@
       <c r="C17" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -16736,16 +16736,16 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -16756,16 +16756,16 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -18083,17 +18083,17 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -18102,14 +18102,14 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="10" t="s">
-        <v>83</v>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="3"/>
       <c r="F6" s="3"/>
@@ -18117,173 +18117,173 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="5" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
@@ -19315,17 +19315,17 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -19334,13 +19334,13 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="3"/>
@@ -19349,81 +19349,81 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="G10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="21" t="s">
@@ -19432,106 +19432,106 @@
       <c r="C11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
@@ -20563,17 +20563,17 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -20582,13 +20582,13 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="3"/>
@@ -20597,34 +20597,34 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -20635,103 +20635,103 @@
         <v>103</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
-        <v>48</v>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="21" t="s">
@@ -20740,18 +20740,18 @@
       <c r="C14" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="21" t="s">
@@ -20760,53 +20760,53 @@
       <c r="C15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8" t="s">
-        <v>96</v>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
-        <v>48</v>
+      <c r="F17" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -20814,47 +20814,47 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -21860,113 +21860,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -21976,563 +21976,563 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="G9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="F17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="G18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="25">
         <v>500.0</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="24"/>
-      <c r="B20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="G20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="24"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/ECLテーブル定義書.xlsx
+++ b/ECLテーブル定義書.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="159">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -34,13 +34,13 @@
     <t>テーブル名</t>
   </si>
   <si>
-    <t>データベース名</t>
-  </si>
-  <si>
     <t>顧客テーブル</t>
   </si>
   <si>
     <t>平川さん</t>
+  </si>
+  <si>
+    <t>データベース名</t>
   </si>
   <si>
     <t>例</t>
@@ -52,40 +52,13 @@
     <t>ECL</t>
   </si>
   <si>
-    <t>住所テーブル</t>
-  </si>
-  <si>
-    <t>administrators</t>
-  </si>
-  <si>
-    <t>カートアイテムテーブル</t>
-  </si>
-  <si>
-    <t>鈴木さん</t>
-  </si>
-  <si>
-    <t>商品情報テーブル</t>
-  </si>
-  <si>
-    <t>受注履歴テーブル</t>
-  </si>
-  <si>
-    <t>森さん</t>
-  </si>
-  <si>
-    <t>受注履歴アイテムテーブル</t>
+    <t>users</t>
   </si>
   <si>
     <t>カラム名</t>
   </si>
   <si>
-    <t>アーティストテーブル</t>
-  </si>
-  <si>
     <t>カラム説明</t>
-  </si>
-  <si>
-    <t>レーベルテーブル</t>
   </si>
   <si>
     <t>PK</t>
@@ -100,40 +73,55 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>ジャンルテーブル</t>
-  </si>
-  <si>
     <t>AUTO INCREMENt</t>
   </si>
   <si>
     <t>INDEX</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>ディスクテーブル</t>
   </si>
   <si>
     <t>備考</t>
   </si>
   <si>
-    <t>曲テーブル</t>
-  </si>
-  <si>
-    <t>admin_id</t>
+    <t>住所テーブル</t>
   </si>
   <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>管理者ID</t>
+    <t>カートアイテムテーブル</t>
+  </si>
+  <si>
+    <t>鈴木さん</t>
+  </si>
+  <si>
+    <t>商品情報テーブル</t>
   </si>
   <si>
     <t>顧客ID</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>受注履歴テーブル</t>
+  </si>
+  <si>
+    <t>森さん</t>
+  </si>
+  <si>
+    <t>受注履歴アイテムテーブル</t>
+  </si>
+  <si>
+    <t>アーティストテーブル</t>
+  </si>
+  <si>
+    <t>レーベルテーブル</t>
+  </si>
+  <si>
+    <t>ジャンルテーブル</t>
   </si>
   <si>
     <t>◯</t>
@@ -142,13 +130,10 @@
     <t>integer</t>
   </si>
   <si>
-    <t>family_name</t>
+    <t>ディスクテーブル</t>
   </si>
   <si>
-    <t>氏名（姓）</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>曲テーブル</t>
   </si>
   <si>
     <t>address_id</t>
@@ -161,16 +146,46 @@
 </t>
   </si>
   <si>
+    <t>住所テーブルからIDに紐づいた住所情報（レコード）を引き出す</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>氏名（姓）</t>
+  </si>
+  <si>
+    <t>administrators</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
     <t>氏名（名）</t>
   </si>
   <si>
-    <t>住所テーブルからIDに紐づいた住所情報（レコード）を引き出す</t>
+    <t>kana_family_name</t>
   </si>
   <si>
-    <t>mail_address</t>
+    <t>カナ氏名（姓）</t>
+  </si>
+  <si>
+    <t>kana_first_name</t>
+  </si>
+  <si>
+    <t>カナ氏名（名）</t>
+  </si>
+  <si>
+    <t>admin_id</t>
+  </si>
+  <si>
+    <t>管理者ID</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -182,22 +197,10 @@
     <t>パスワード</t>
   </si>
   <si>
-    <t>kana_family_name</t>
-  </si>
-  <si>
-    <t>カナ氏名（姓）</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
     <t>電話番号</t>
-  </si>
-  <si>
-    <t>kana_first_name</t>
-  </si>
-  <si>
-    <t>カナ氏名（名）</t>
   </si>
   <si>
     <t>created_at</t>
@@ -233,16 +236,40 @@
     <t>顧客情報更新日時</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>addresses</t>
   </si>
   <si>
+    <t>cart_items</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>cart_item_id</t>
+  </si>
+  <si>
+    <t>Item_id</t>
+  </si>
+  <si>
     <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>カートアイテムID</t>
   </si>
   <si>
     <t>post_number</t>
   </si>
   <si>
     <t>郵便番号</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>artist_id</t>
   </si>
   <si>
     <t>address</t>
@@ -254,34 +281,10 @@
     <t>text</t>
   </si>
   <si>
-    <t>phone_nember</t>
+    <t>アーティストID</t>
   </si>
   <si>
-    <t>住所内容変更日時</t>
-  </si>
-  <si>
-    <t>cart_items</t>
-  </si>
-  <si>
-    <t>cart_item_id</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>Item_id</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>カートアイテムID</t>
-  </si>
-  <si>
-    <t>artist_id</t>
-  </si>
-  <si>
-    <t>アーティストID</t>
+    <t>phone_nember</t>
   </si>
   <si>
     <t>label_id</t>
@@ -290,16 +293,13 @@
     <t>レーベルID</t>
   </si>
   <si>
+    <t>sheet</t>
+  </si>
+  <si>
     <t>genre_id</t>
   </si>
   <si>
     <t>ジャンルID</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>枚数</t>
   </si>
   <si>
     <t>product_name</t>
@@ -308,16 +308,25 @@
     <t>商品名</t>
   </si>
   <si>
-    <t>登録日時</t>
+    <t>住所内容変更日時</t>
   </si>
   <si>
-    <t>更新日時</t>
+    <t>枚数</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
     <t>値段</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>更新日時</t>
   </si>
   <si>
     <t>jacket_image_id</t>
@@ -350,16 +359,28 @@
     <t>paranoia</t>
   </si>
   <si>
+    <t>order_items</t>
+  </si>
+  <si>
     <t>orders</t>
+  </si>
+  <si>
+    <t>order_item_id</t>
+  </si>
+  <si>
+    <t>受注履歴アイテムID</t>
   </si>
   <si>
     <t>order_id</t>
   </si>
   <si>
+    <t>〇</t>
+  </si>
+  <si>
     <t>受注履歴ID</t>
   </si>
   <si>
-    <t>〇</t>
+    <t>item_id</t>
   </si>
   <si>
     <t>payment_method</t>
@@ -401,37 +422,25 @@
     <t>送料</t>
   </si>
   <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
     <t>amount</t>
   </si>
   <si>
     <t>総合計</t>
   </si>
   <si>
-    <t>登録日 (注文日時)</t>
+    <t>artists</t>
   </si>
   <si>
     <t>更新日</t>
   </si>
   <si>
-    <t>order_items</t>
-  </si>
-  <si>
-    <t>order_item_id</t>
-  </si>
-  <si>
-    <t>受注履歴アイテムID</t>
-  </si>
-  <si>
-    <t>artists</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>金額</t>
+    <t>登録日 (注文日時)</t>
   </si>
   <si>
     <t>artist_name</t>
@@ -440,28 +449,22 @@
     <t>アーティスト名</t>
   </si>
   <si>
-    <t>登録日</t>
+    <t>genres</t>
   </si>
   <si>
     <t>labels</t>
-  </si>
-  <si>
-    <t>lebel_id</t>
-  </si>
-  <si>
-    <t>lebel_name</t>
-  </si>
-  <si>
-    <t>レーベル名</t>
-  </si>
-  <si>
-    <t>genres</t>
   </si>
   <si>
     <t>genre_name</t>
   </si>
   <si>
     <t>ジャンル名</t>
+  </si>
+  <si>
+    <t>label_name</t>
+  </si>
+  <si>
+    <t>レーベル名</t>
   </si>
   <si>
     <t>discs</t>
@@ -494,7 +497,7 @@
     <t>曲名</t>
   </si>
   <si>
-    <t>song_order</t>
+    <t>song_turn</t>
   </si>
   <si>
     <t>曲順</t>
@@ -548,11 +551,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -562,6 +560,11 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -630,27 +633,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -659,6 +662,12 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -672,11 +681,14 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -757,16 +769,16 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -775,10 +787,10 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -788,8 +800,8 @@
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -797,10 +809,10 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -808,10 +820,10 @@
         <v>6.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -819,10 +831,10 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -830,10 +842,10 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -841,10 +853,10 @@
         <v>9.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -852,10 +864,10 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -863,10 +875,10 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -874,10 +886,10 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -885,10 +897,10 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -896,10 +908,10 @@
         <v>15.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -1912,7 +1924,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -1923,9 +1935,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1954,7 +1966,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -1965,7 +1977,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1979,9 +1991,9 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1994,147 +2006,147 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
-        <v>140</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
-        <v>141</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16" t="s">
-        <v>58</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16" t="s">
-        <v>62</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2147,7 +2159,7 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2160,7 +2172,7 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2173,7 +2185,7 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2186,11 +2198,11 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2199,7 +2211,7 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3272,7 +3284,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -3283,9 +3295,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3314,7 +3326,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -3325,7 +3337,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -3339,9 +3351,9 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3354,147 +3366,147 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16" t="s">
-        <v>58</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16" t="s">
-        <v>62</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3507,7 +3519,7 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3520,7 +3532,7 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3533,7 +3545,7 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3546,11 +3558,11 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -3559,7 +3571,7 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3572,15 +3584,15 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4587,7 +4599,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -4599,9 +4611,9 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4632,7 +4644,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -4644,7 +4656,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -4659,9 +4671,9 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4675,96 +4687,96 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -4773,20 +4785,20 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -4795,55 +4807,55 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16" t="s">
-        <v>58</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
-        <v>62</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4857,7 +4869,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4871,7 +4883,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4885,11 +4897,11 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -4899,7 +4911,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4913,15 +4925,15 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5928,7 +5940,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -5939,9 +5951,9 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5970,7 +5982,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -5981,7 +5993,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -5995,9 +6007,9 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6010,93 +6022,93 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -6104,43 +6116,43 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
-        <v>156</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6148,53 +6160,53 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
-        <v>58</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="16" t="s">
-        <v>62</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6207,7 +6219,7 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6220,11 +6232,11 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -6233,7 +6245,7 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7262,7 +7274,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -7280,9 +7292,9 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7325,7 +7337,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -7343,7 +7355,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -7364,9 +7376,9 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7386,16 +7398,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -7404,36 +7416,36 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -7443,28 +7455,28 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -7476,30 +7488,30 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -7509,20 +7521,20 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -7536,7 +7548,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
@@ -7546,10 +7558,10 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7563,20 +7575,20 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -7590,20 +7602,20 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -7617,20 +7629,20 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
-        <v>48</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -7644,20 +7656,20 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7671,20 +7683,20 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -7698,20 +7710,20 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -7719,7 +7731,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -7729,25 +7741,25 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="1"/>
@@ -7758,25 +7770,25 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="1"/>
@@ -8844,7 +8856,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8863,9 +8875,9 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8910,7 +8922,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -8929,11 +8941,13 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -8951,9 +8965,9 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8974,16 +8988,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -8993,36 +9007,36 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -9033,28 +9047,28 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -9067,20 +9081,20 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -9095,7 +9109,7 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
@@ -9105,10 +9119,10 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -9123,20 +9137,20 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="11" t="s">
-        <v>48</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -9151,20 +9165,20 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -9179,20 +9193,20 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -9207,25 +9221,25 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="1"/>
@@ -9237,25 +9251,25 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="1"/>
@@ -10539,8 +10553,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="A1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10559,9 +10575,9 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10606,7 +10622,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -10625,7 +10641,7 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -10647,9 +10663,9 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10670,16 +10686,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -10689,36 +10705,36 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -10729,28 +10745,28 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -10763,22 +10779,22 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -10793,20 +10809,20 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -10821,7 +10837,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
@@ -10831,10 +10847,10 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10849,20 +10865,20 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -10876,20 +10892,20 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -10903,20 +10919,20 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -10931,20 +10947,20 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10959,20 +10975,20 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -10987,25 +11003,25 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="1"/>
@@ -11017,25 +11033,25 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="1"/>
@@ -12394,111 +12410,111 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -12506,21 +12522,21 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>81</v>
+      <c r="B11" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -12528,19 +12544,19 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="16" t="s">
-        <v>90</v>
+      <c r="B12" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -12548,46 +12564,46 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="16" t="s">
-        <v>58</v>
+      <c r="B13" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="16" t="s">
-        <v>62</v>
+      <c r="B14" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7"/>
     </row>
@@ -12616,28 +12632,28 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -13646,111 +13662,111 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -13758,21 +13774,21 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>86</v>
+      <c r="B11" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -13780,21 +13796,21 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="16" t="s">
-        <v>88</v>
+      <c r="B12" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -13802,7 +13818,7 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -13811,10 +13827,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -13822,7 +13838,7 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -13831,10 +13847,10 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -13842,16 +13858,19 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="16" t="s">
-        <v>98</v>
+      <c r="A15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -13860,19 +13879,19 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>100</v>
+      <c r="B16" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -13880,90 +13899,90 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="16" t="s">
-        <v>102</v>
+      <c r="B17" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7">
         <v>0.0</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>104</v>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>106</v>
+      <c r="B18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="18" t="s">
-        <v>60</v>
+      <c r="F18" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="18" t="s">
-        <v>107</v>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="16" t="s">
-        <v>58</v>
+      <c r="B19" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="16" t="s">
-        <v>62</v>
+      <c r="B20" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7"/>
     </row>
@@ -14947,7 +14966,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14972,7 +14990,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -14987,9 +15005,9 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -15026,7 +15044,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -15041,7 +15059,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -15059,9 +15077,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -15078,51 +15096,51 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -15130,28 +15148,28 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -15161,26 +15179,26 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -15190,26 +15208,26 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -15218,20 +15236,20 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -15239,24 +15257,24 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -15268,20 +15286,20 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -15293,20 +15311,20 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="10"/>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -15318,20 +15336,20 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -15343,20 +15361,20 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -15368,20 +15386,20 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="10"/>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -15393,24 +15411,24 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="10"/>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="20">
+      <c r="J19" s="23">
         <v>500.0</v>
       </c>
       <c r="K19" s="7"/>
@@ -15420,20 +15438,20 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="10"/>
       <c r="F20" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -15445,25 +15463,25 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="16" t="s">
-        <v>58</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="10"/>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="1"/>
@@ -15472,25 +15490,25 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="16" t="s">
-        <v>62</v>
+      <c r="A22" s="5"/>
+      <c r="B22" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="1"/>
@@ -16635,7 +16653,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -16648,9 +16666,9 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -16683,7 +16701,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -16696,7 +16714,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -16712,9 +16730,9 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -16729,76 +16747,76 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -16806,22 +16824,22 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -16831,22 +16849,22 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -16856,43 +16874,43 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
-        <v>134</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -16902,57 +16920,57 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="16" t="s">
-        <v>58</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="16" t="s">
-        <v>62</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="10"/>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -16967,11 +16985,11 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -16982,7 +17000,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18041,7 +18059,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
@@ -18053,9 +18071,9 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -18086,7 +18104,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -18098,7 +18116,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -18113,9 +18131,9 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -18129,153 +18147,153 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16" t="s">
-        <v>58</v>
+      <c r="A11" s="5"/>
+      <c r="B11" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="16" t="s">
-        <v>62</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -18289,7 +18307,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -18303,7 +18321,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -18317,7 +18335,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -18331,11 +18349,11 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -18345,7 +18363,7 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -18359,15 +18377,15 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
